--- a/kanji_modification_data.xlsx
+++ b/kanji_modification_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grosso/Desktop/app_business/japanese_kanji/development/tools/data_refinement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D3367-C750-9C4E-886C-2156FE06FB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2B917-B3DE-6F47-AA43-CDB3C839FB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20400" xr2:uid="{67EB6C35-0CC9-BF44-AFDA-7BD109854B2E}"/>
   </bookViews>
